--- a/po forecast comparison/B0DQLKZSKF_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DQLKZSKF_sales_po_comparison.xlsx
@@ -474,7 +474,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +721,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
